--- a/ApolloQA/Data/RatingManual/SC/VA00065.ClassCodeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00065.ClassCodeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00065.ClassCodeFactors" sheetId="1" r:id="R98a0bed83bb2459f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00065.ClassCodeFactors" sheetId="1" r:id="R8a94afad72e14c60"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -23,7 +23,7 @@
         <x:v>401</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0831</x:v>
+        <x:v>1.3539</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -31,7 +31,7 @@
         <x:v>410</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0730</x:v>
+        <x:v>1.3413</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -39,7 +39,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0831</x:v>
+        <x:v>1.3539</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -47,7 +47,7 @@
         <x:v>420</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0831</x:v>
+        <x:v>1.3539</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -55,7 +55,7 @@
         <x:v>421</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0831</x:v>
+        <x:v>1.3539</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -63,7 +63,7 @@
         <x:v>422</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0831</x:v>
+        <x:v>1.3539</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -71,7 +71,7 @@
         <x:v>423</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0831</x:v>
+        <x:v>1.3539</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -79,7 +79,7 @@
         <x:v>424</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0831</x:v>
+        <x:v>1.3539</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -87,7 +87,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0831</x:v>
+        <x:v>1.3539</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -95,7 +95,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0831</x:v>
+        <x:v>1.3539</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -103,7 +103,7 @@
         <x:v>428</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0831</x:v>
+        <x:v>1.3539</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -111,7 +111,7 @@
         <x:v>429</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9771</x:v>
+        <x:v>1.2214</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -119,7 +119,7 @@
         <x:v>501</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0831</x:v>
+        <x:v>1.3539</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -127,7 +127,7 @@
         <x:v>502</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0831</x:v>
+        <x:v>1.3539</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -135,7 +135,7 @@
         <x:v>503</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0831</x:v>
+        <x:v>1.3539</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -143,91 +143,91 @@
         <x:v>505</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>1.2500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>506</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>510</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1230</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>515</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4688</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9702</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>521</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>522</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>523</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>531</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4688</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>534</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>541</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>506</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.8500</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>510</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.8984</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>515</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.1750</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>516</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.9702</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>521</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.8500</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>522</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.8500</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>523</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.8500</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>531</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.1750</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>534</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.8500</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>541</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
         <x:v>543</x:v>
       </x:c>
       <x:c t="str">
@@ -247,7 +247,7 @@
         <x:v>563</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8500</x:v>
+        <x:v>1.0625</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
